--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1476851.409275075</v>
+        <v>-1479477.079998891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9951405.348202143</v>
+        <v>9951405.348202145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>345.8395271538714</v>
       </c>
       <c r="D11" t="n">
-        <v>335.2496770035469</v>
+        <v>335.2496770035468</v>
       </c>
       <c r="E11" t="n">
-        <v>362.4970054551258</v>
+        <v>362.4970054551256</v>
       </c>
       <c r="F11" t="n">
-        <v>387.4426811245754</v>
+        <v>387.4426811245753</v>
       </c>
       <c r="G11" t="n">
-        <v>391.4883610363174</v>
+        <v>188.4154739347103</v>
       </c>
       <c r="H11" t="n">
-        <v>275.1743997701844</v>
+        <v>275.1743997701843</v>
       </c>
       <c r="I11" t="n">
-        <v>22.14356515578993</v>
+        <v>22.14356515578979</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.75439717103978</v>
+        <v>89.75439717103967</v>
       </c>
       <c r="T11" t="n">
-        <v>184.4846055224841</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>231.5618073417659</v>
+        <v>231.5618073417658</v>
       </c>
       <c r="V11" t="n">
-        <v>308.3188938529989</v>
+        <v>308.3188938529987</v>
       </c>
       <c r="W11" t="n">
-        <v>271.5828006524715</v>
+        <v>329.8076041002769</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>350.2977360613329</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.8045740389176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.3986155648013</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.8134564814918</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>129.1821084010763</v>
+        <v>129.1821084010762</v>
       </c>
       <c r="E13" t="n">
-        <v>127.0005980294331</v>
+        <v>127.000598029433</v>
       </c>
       <c r="F13" t="n">
-        <v>125.9876834057952</v>
+        <v>125.9876834057951</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5924436418922</v>
+        <v>146.5924436418921</v>
       </c>
       <c r="H13" t="n">
-        <v>125.3216502971847</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>76.91905579270204</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.49878805291129</v>
+        <v>69.49878805291117</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>170.3356607143057</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.115584659033</v>
       </c>
       <c r="U13" t="n">
-        <v>213.3161197361827</v>
+        <v>266.7784735884767</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>232.7042787066918</v>
       </c>
       <c r="W13" t="n">
-        <v>267.089633719455</v>
+        <v>267.0896337194548</v>
       </c>
       <c r="X13" t="n">
-        <v>206.2762907719011</v>
+        <v>206.276290771901</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.1512887349588</v>
+        <v>52.9861889388167</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>363.3004770463446</v>
+        <v>363.3004770463444</v>
       </c>
       <c r="C14" t="n">
-        <v>345.8395271538715</v>
+        <v>345.8395271538714</v>
       </c>
       <c r="D14" t="n">
-        <v>7.053742687137458</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>362.4970054551258</v>
+        <v>362.4970054551256</v>
       </c>
       <c r="F14" t="n">
-        <v>387.4426811245754</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>391.4883610363174</v>
+        <v>391.4883610363173</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.1743997701843</v>
       </c>
       <c r="I14" t="n">
-        <v>22.14356515578994</v>
+        <v>22.14356515578982</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>89.7543971710398</v>
+        <v>89.75439717103968</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>184.484605522484</v>
       </c>
       <c r="U14" t="n">
-        <v>231.5618073417659</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>308.3188938529989</v>
+        <v>308.3188938529987</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>329.8076041002769</v>
       </c>
       <c r="X14" t="n">
-        <v>350.297736061333</v>
+        <v>186.889357821867</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.8045740389176</v>
+        <v>366.8045740389174</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.3986155648013</v>
+        <v>160.3986155648011</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.8134564814917</v>
       </c>
       <c r="D16" t="n">
-        <v>129.1821084010763</v>
+        <v>129.1821084010762</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.000598029433</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.9876834057951</v>
       </c>
       <c r="G16" t="n">
-        <v>16.09795392347237</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.91905579270207</v>
+        <v>76.91905579270195</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.49878805291131</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.3356607143058</v>
+        <v>87.83494348066316</v>
       </c>
       <c r="T16" t="n">
-        <v>200.1155846590332</v>
+        <v>200.115584659033</v>
       </c>
       <c r="U16" t="n">
-        <v>266.7784735884769</v>
+        <v>266.7784735884767</v>
       </c>
       <c r="V16" t="n">
-        <v>232.704278706692</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>267.089633719455</v>
+        <v>267.0896337194548</v>
       </c>
       <c r="X16" t="n">
-        <v>206.2762907719011</v>
+        <v>206.276290771901</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.1512887349588</v>
+        <v>199.1512887349586</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.3253404277519</v>
+        <v>316.3253404277518</v>
       </c>
       <c r="C17" t="n">
-        <v>298.864390535279</v>
+        <v>298.8643905352788</v>
       </c>
       <c r="D17" t="n">
-        <v>288.2745403849543</v>
+        <v>288.2745403849542</v>
       </c>
       <c r="E17" t="n">
-        <v>315.5218688365331</v>
+        <v>315.521868836533</v>
       </c>
       <c r="F17" t="n">
-        <v>340.4675445059828</v>
+        <v>340.4675445059827</v>
       </c>
       <c r="G17" t="n">
-        <v>344.5132244177248</v>
+        <v>344.5132244177247</v>
       </c>
       <c r="H17" t="n">
-        <v>104.1384907368197</v>
+        <v>228.1992631515917</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>42.7792605524471</v>
       </c>
       <c r="T17" t="n">
-        <v>137.5094689038916</v>
+        <v>137.5094689038914</v>
       </c>
       <c r="U17" t="n">
-        <v>184.5866707231734</v>
+        <v>17.74663775595268</v>
       </c>
       <c r="V17" t="n">
-        <v>261.3437572344063</v>
+        <v>261.3437572344062</v>
       </c>
       <c r="W17" t="n">
-        <v>282.8324674816844</v>
+        <v>282.8324674816843</v>
       </c>
       <c r="X17" t="n">
-        <v>303.3225994427404</v>
+        <v>303.3225994427403</v>
       </c>
       <c r="Y17" t="n">
-        <v>319.829437420325</v>
+        <v>319.8294374203248</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.4234789462087</v>
+        <v>113.4234789462085</v>
       </c>
       <c r="C19" t="n">
-        <v>100.8383198628992</v>
+        <v>100.8383198628991</v>
       </c>
       <c r="D19" t="n">
-        <v>82.20697178248375</v>
+        <v>82.20697178248361</v>
       </c>
       <c r="E19" t="n">
-        <v>80.02546141084056</v>
+        <v>80.02546141084042</v>
       </c>
       <c r="F19" t="n">
-        <v>79.01254678720264</v>
+        <v>79.0125467872025</v>
       </c>
       <c r="G19" t="n">
-        <v>99.61730702329962</v>
+        <v>99.61730702329947</v>
       </c>
       <c r="H19" t="n">
-        <v>78.34651367859217</v>
+        <v>78.34651367859203</v>
       </c>
       <c r="I19" t="n">
-        <v>29.9439191741095</v>
+        <v>29.94391917410936</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.52365143431874</v>
+        <v>22.52365143431859</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3605240957133</v>
+        <v>123.3605240957131</v>
       </c>
       <c r="T19" t="n">
-        <v>153.1404480404406</v>
+        <v>153.1404480404404</v>
       </c>
       <c r="U19" t="n">
-        <v>219.8033369698842</v>
+        <v>219.8033369698841</v>
       </c>
       <c r="V19" t="n">
-        <v>185.7291420880994</v>
+        <v>185.7291420880993</v>
       </c>
       <c r="W19" t="n">
-        <v>220.1144971008624</v>
+        <v>220.1144971008623</v>
       </c>
       <c r="X19" t="n">
-        <v>159.3011541533085</v>
+        <v>159.3011541533084</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.1761521163662</v>
+        <v>152.176152116366</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316.3253404277519</v>
+        <v>316.3253404277518</v>
       </c>
       <c r="C20" t="n">
-        <v>298.864390535279</v>
+        <v>298.8643905352788</v>
       </c>
       <c r="D20" t="n">
-        <v>288.2745403849543</v>
+        <v>288.2745403849542</v>
       </c>
       <c r="E20" t="n">
-        <v>315.5218688365331</v>
+        <v>315.521868836533</v>
       </c>
       <c r="F20" t="n">
-        <v>173.6275115387621</v>
+        <v>340.4675445059827</v>
       </c>
       <c r="G20" t="n">
-        <v>344.5132244177248</v>
+        <v>344.5132244177247</v>
       </c>
       <c r="H20" t="n">
-        <v>228.1992631515919</v>
+        <v>228.1992631515917</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.77926055244724</v>
+        <v>42.7792605524471</v>
       </c>
       <c r="T20" t="n">
-        <v>137.5094689038916</v>
+        <v>137.5094689038914</v>
       </c>
       <c r="U20" t="n">
-        <v>184.5866707231734</v>
+        <v>184.5866707231732</v>
       </c>
       <c r="V20" t="n">
-        <v>261.3437572344063</v>
+        <v>261.3437572344062</v>
       </c>
       <c r="W20" t="n">
-        <v>282.8324674816844</v>
+        <v>282.8324674816843</v>
       </c>
       <c r="X20" t="n">
-        <v>303.3225994427404</v>
+        <v>303.3225994427403</v>
       </c>
       <c r="Y20" t="n">
-        <v>319.829437420325</v>
+        <v>152.9894044531052</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.4234789462087</v>
+        <v>113.4234789462085</v>
       </c>
       <c r="C22" t="n">
-        <v>100.8383198628992</v>
+        <v>100.8383198628991</v>
       </c>
       <c r="D22" t="n">
-        <v>82.20697178248375</v>
+        <v>82.20697178248361</v>
       </c>
       <c r="E22" t="n">
-        <v>80.02546141084056</v>
+        <v>80.02546141084042</v>
       </c>
       <c r="F22" t="n">
-        <v>79.01254678720264</v>
+        <v>79.0125467872025</v>
       </c>
       <c r="G22" t="n">
-        <v>99.61730702329962</v>
+        <v>99.61730702329947</v>
       </c>
       <c r="H22" t="n">
-        <v>78.34651367859217</v>
+        <v>78.34651367859203</v>
       </c>
       <c r="I22" t="n">
-        <v>29.9439191741095</v>
+        <v>29.94391917410936</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.52365143431874</v>
+        <v>22.52365143431859</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3605240957133</v>
+        <v>123.3605240957131</v>
       </c>
       <c r="T22" t="n">
-        <v>153.1404480404406</v>
+        <v>153.1404480404404</v>
       </c>
       <c r="U22" t="n">
-        <v>219.8033369698842</v>
+        <v>219.8033369698841</v>
       </c>
       <c r="V22" t="n">
-        <v>185.7291420880994</v>
+        <v>185.7291420880993</v>
       </c>
       <c r="W22" t="n">
-        <v>220.1144971008624</v>
+        <v>220.1144971008623</v>
       </c>
       <c r="X22" t="n">
-        <v>159.3011541533085</v>
+        <v>159.3011541533084</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.1761521163662</v>
+        <v>152.176152116366</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.3253404277519</v>
+        <v>316.3253404277518</v>
       </c>
       <c r="C23" t="n">
-        <v>298.864390535279</v>
+        <v>298.8643905352788</v>
       </c>
       <c r="D23" t="n">
-        <v>288.2745403849543</v>
+        <v>288.2745403849542</v>
       </c>
       <c r="E23" t="n">
-        <v>315.5218688365331</v>
+        <v>315.521868836533</v>
       </c>
       <c r="F23" t="n">
-        <v>340.4675445059828</v>
+        <v>340.4675445059827</v>
       </c>
       <c r="G23" t="n">
-        <v>344.5132244177248</v>
+        <v>344.5132244177247</v>
       </c>
       <c r="H23" t="n">
-        <v>228.1992631515919</v>
+        <v>228.1992631515917</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.77926055244724</v>
+        <v>42.7792605524471</v>
       </c>
       <c r="T23" t="n">
-        <v>137.5094689038916</v>
+        <v>137.5094689038914</v>
       </c>
       <c r="U23" t="n">
-        <v>184.5866707231734</v>
+        <v>184.5866707231732</v>
       </c>
       <c r="V23" t="n">
-        <v>261.3437572344063</v>
+        <v>261.3437572344062</v>
       </c>
       <c r="W23" t="n">
-        <v>282.8324674816844</v>
+        <v>282.8324674816843</v>
       </c>
       <c r="X23" t="n">
-        <v>303.3225994427404</v>
+        <v>303.3225994427403</v>
       </c>
       <c r="Y23" t="n">
-        <v>319.829437420325</v>
+        <v>319.8294374203248</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.4234789462087</v>
+        <v>113.4234789462085</v>
       </c>
       <c r="C25" t="n">
-        <v>100.8383198628992</v>
+        <v>100.8383198628991</v>
       </c>
       <c r="D25" t="n">
-        <v>82.20697178248375</v>
+        <v>82.20697178248361</v>
       </c>
       <c r="E25" t="n">
-        <v>80.02546141084056</v>
+        <v>80.02546141084042</v>
       </c>
       <c r="F25" t="n">
-        <v>79.01254678720264</v>
+        <v>79.0125467872025</v>
       </c>
       <c r="G25" t="n">
-        <v>99.61730702329962</v>
+        <v>99.61730702329947</v>
       </c>
       <c r="H25" t="n">
-        <v>78.34651367859217</v>
+        <v>78.34651367859203</v>
       </c>
       <c r="I25" t="n">
-        <v>29.9439191741095</v>
+        <v>29.94391917410936</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.52365143431874</v>
+        <v>22.52365143431859</v>
       </c>
       <c r="S25" t="n">
-        <v>123.3605240957133</v>
+        <v>123.3605240957131</v>
       </c>
       <c r="T25" t="n">
-        <v>153.1404480404406</v>
+        <v>153.1404480404404</v>
       </c>
       <c r="U25" t="n">
-        <v>219.8033369698842</v>
+        <v>219.8033369698841</v>
       </c>
       <c r="V25" t="n">
-        <v>185.7291420880994</v>
+        <v>185.7291420880993</v>
       </c>
       <c r="W25" t="n">
-        <v>220.1144971008624</v>
+        <v>220.1144971008623</v>
       </c>
       <c r="X25" t="n">
-        <v>159.3011541533085</v>
+        <v>159.3011541533084</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.1761521163662</v>
+        <v>152.176152116366</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1858.426954356971</v>
+        <v>2002.63568168249</v>
       </c>
       <c r="C11" t="n">
-        <v>1858.426954356971</v>
+        <v>1653.302825971509</v>
       </c>
       <c r="D11" t="n">
-        <v>1519.790916979651</v>
+        <v>1314.666788594189</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.632325610837</v>
+        <v>948.5081972253751</v>
       </c>
       <c r="F11" t="n">
-        <v>762.2760820506601</v>
+        <v>557.151953665198</v>
       </c>
       <c r="G11" t="n">
-        <v>366.8332931250868</v>
+        <v>366.8332931250866</v>
       </c>
       <c r="H11" t="n">
-        <v>88.87935396328436</v>
+        <v>88.87935396328425</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.944814365696</v>
+        <v>3234.944814365697</v>
       </c>
       <c r="T11" t="n">
-        <v>3048.596727979349</v>
+        <v>3234.944814365697</v>
       </c>
       <c r="U11" t="n">
-        <v>2814.695912482616</v>
+        <v>3001.043998868964</v>
       </c>
       <c r="V11" t="n">
-        <v>2503.262686368475</v>
+        <v>2689.610772754823</v>
       </c>
       <c r="W11" t="n">
-        <v>2228.936625103353</v>
+        <v>2356.47177871414</v>
       </c>
       <c r="X11" t="n">
-        <v>2228.936625103353</v>
+        <v>2002.63568168249</v>
       </c>
       <c r="Y11" t="n">
-        <v>1858.426954356971</v>
+        <v>2002.63568168249</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2060518357952</v>
+        <v>600.6159886323819</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8995301373186</v>
+        <v>600.6159886323819</v>
       </c>
       <c r="D13" t="n">
-        <v>674.4125519544132</v>
+        <v>470.1290104494766</v>
       </c>
       <c r="E13" t="n">
-        <v>546.1291196014504</v>
+        <v>341.8455780965139</v>
       </c>
       <c r="F13" t="n">
-        <v>418.8688333329703</v>
+        <v>214.585291828034</v>
       </c>
       <c r="G13" t="n">
-        <v>270.7956579371196</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2081323844077</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>130.8737798500837</v>
+        <v>130.8737798500839</v>
       </c>
       <c r="K13" t="n">
-        <v>354.0999937699248</v>
+        <v>354.099993769925</v>
       </c>
       <c r="L13" t="n">
-        <v>689.8988231893857</v>
+        <v>689.8988231893859</v>
       </c>
       <c r="M13" t="n">
-        <v>1053.294899759899</v>
+        <v>1053.2948997599</v>
       </c>
       <c r="N13" t="n">
         <v>1413.942307436729</v>
@@ -5215,34 +5215,34 @@
         <v>1732.510937328107</v>
       </c>
       <c r="P13" t="n">
-        <v>1984.35746873273</v>
+        <v>1984.357468732731</v>
       </c>
       <c r="Q13" t="n">
-        <v>2081.20679585621</v>
+        <v>2081.206795856211</v>
       </c>
       <c r="R13" t="n">
-        <v>2011.005999843168</v>
+        <v>2011.00599984317</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.005999843168</v>
+        <v>1838.949776899426</v>
       </c>
       <c r="T13" t="n">
-        <v>2011.005999843168</v>
+        <v>1636.812822698383</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.535171826822</v>
+        <v>1367.339617053457</v>
       </c>
       <c r="V13" t="n">
-        <v>1795.535171826822</v>
+        <v>1132.284790077001</v>
       </c>
       <c r="W13" t="n">
-        <v>1525.747663019291</v>
+        <v>862.4972812694705</v>
       </c>
       <c r="X13" t="n">
-        <v>1317.387773350704</v>
+        <v>654.1373916008836</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.224855436604</v>
+        <v>600.6159886323819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.294826142101</v>
+        <v>1477.767529130454</v>
       </c>
       <c r="C14" t="n">
-        <v>1248.961970431119</v>
+        <v>1128.434673419473</v>
       </c>
       <c r="D14" t="n">
-        <v>1241.836977817849</v>
+        <v>1128.434673419473</v>
       </c>
       <c r="E14" t="n">
-        <v>875.6783864490349</v>
+        <v>762.2760820506592</v>
       </c>
       <c r="F14" t="n">
-        <v>484.3221428888576</v>
+        <v>762.2760820506592</v>
       </c>
       <c r="G14" t="n">
-        <v>88.87935396328437</v>
+        <v>366.8332931250866</v>
       </c>
       <c r="H14" t="n">
-        <v>88.87935396328437</v>
+        <v>88.87935396328427</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.944814365696</v>
+        <v>3234.944814365695</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.944814365696</v>
+        <v>3048.596727979348</v>
       </c>
       <c r="U14" t="n">
-        <v>3001.043998868964</v>
+        <v>3048.596727979348</v>
       </c>
       <c r="V14" t="n">
-        <v>2689.610772754823</v>
+        <v>2737.163501865208</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.610772754823</v>
+        <v>2404.024507824524</v>
       </c>
       <c r="X14" t="n">
-        <v>2335.774675723174</v>
+        <v>2215.247378711527</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.265004976792</v>
+        <v>1844.737707965146</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>290.9556700859721</v>
+        <v>679.545350887232</v>
       </c>
       <c r="C16" t="n">
-        <v>290.9556700859721</v>
+        <v>530.2388291887555</v>
       </c>
       <c r="D16" t="n">
-        <v>160.4686919030667</v>
+        <v>399.7518510058502</v>
       </c>
       <c r="E16" t="n">
-        <v>160.4686919030667</v>
+        <v>271.4684186528875</v>
       </c>
       <c r="F16" t="n">
-        <v>160.4686919030667</v>
+        <v>144.2081323844076</v>
       </c>
       <c r="G16" t="n">
-        <v>144.2081323844077</v>
+        <v>144.2081323844076</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2081323844077</v>
+        <v>144.2081323844076</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8737798500836</v>
+        <v>130.8737798500837</v>
       </c>
       <c r="K16" t="n">
-        <v>354.0999937699246</v>
+        <v>354.0999937699248</v>
       </c>
       <c r="L16" t="n">
-        <v>689.8988231893854</v>
+        <v>689.8988231893857</v>
       </c>
       <c r="M16" t="n">
         <v>1053.294899759899</v>
       </c>
       <c r="N16" t="n">
-        <v>1413.942307436728</v>
+        <v>1413.942307436729</v>
       </c>
       <c r="O16" t="n">
-        <v>1732.510937328106</v>
+        <v>1732.510937328107</v>
       </c>
       <c r="P16" t="n">
-        <v>1984.35746873273</v>
+        <v>1984.357468732731</v>
       </c>
       <c r="Q16" t="n">
         <v>2081.20679585621</v>
       </c>
       <c r="R16" t="n">
-        <v>2011.005999843168</v>
+        <v>2081.20679585621</v>
       </c>
       <c r="S16" t="n">
-        <v>1838.949776899425</v>
+        <v>1992.484630724227</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.812822698381</v>
+        <v>1790.347676523184</v>
       </c>
       <c r="U16" t="n">
-        <v>1367.339617053455</v>
+        <v>1520.874470878258</v>
       </c>
       <c r="V16" t="n">
-        <v>1132.284790076998</v>
+        <v>1520.874470878258</v>
       </c>
       <c r="W16" t="n">
-        <v>862.4972812694682</v>
+        <v>1251.086962070728</v>
       </c>
       <c r="X16" t="n">
-        <v>654.1373916008812</v>
+        <v>1042.727072402141</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.9744736867814</v>
+        <v>841.5641544880411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.967897598405</v>
+        <v>1906.281809128478</v>
       </c>
       <c r="C17" t="n">
-        <v>1479.084674835497</v>
+        <v>1604.398586365571</v>
       </c>
       <c r="D17" t="n">
-        <v>1187.89827040625</v>
+        <v>1313.212181936324</v>
       </c>
       <c r="E17" t="n">
-        <v>869.1893119855097</v>
+        <v>994.5032235155836</v>
       </c>
       <c r="F17" t="n">
-        <v>525.2827013734059</v>
+        <v>650.5966129034798</v>
       </c>
       <c r="G17" t="n">
-        <v>177.2895453959067</v>
+        <v>302.6034569259793</v>
       </c>
       <c r="H17" t="n">
-        <v>72.09915071225039</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="I17" t="n">
-        <v>72.09915071225039</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J17" t="n">
-        <v>324.5511206412525</v>
+        <v>260.9782816712757</v>
       </c>
       <c r="K17" t="n">
-        <v>658.3704943310988</v>
+        <v>594.7976553611221</v>
       </c>
       <c r="L17" t="n">
-        <v>1109.404707579507</v>
+        <v>1045.831868609531</v>
       </c>
       <c r="M17" t="n">
-        <v>1642.936612251432</v>
+        <v>1579.363773281455</v>
       </c>
       <c r="N17" t="n">
-        <v>2189.715429310214</v>
+        <v>2126.142590340237</v>
       </c>
       <c r="O17" t="n">
-        <v>2692.687900189551</v>
+        <v>2902.879740942855</v>
       </c>
       <c r="P17" t="n">
-        <v>3087.462266546729</v>
+        <v>3297.654107300033</v>
       </c>
       <c r="Q17" t="n">
-        <v>3545.940469055717</v>
+        <v>3545.940469055715</v>
       </c>
       <c r="R17" t="n">
-        <v>3604.957535612519</v>
+        <v>3604.957535612517</v>
       </c>
       <c r="S17" t="n">
-        <v>3604.957535612519</v>
+        <v>3561.746161317116</v>
       </c>
       <c r="T17" t="n">
-        <v>3466.059082174245</v>
+        <v>3422.847707878842</v>
       </c>
       <c r="U17" t="n">
-        <v>3279.607899625585</v>
+        <v>3404.921811155657</v>
       </c>
       <c r="V17" t="n">
-        <v>3015.624306459518</v>
+        <v>3140.938217989591</v>
       </c>
       <c r="W17" t="n">
-        <v>2729.934945366907</v>
+        <v>2855.24885689698</v>
       </c>
       <c r="X17" t="n">
-        <v>2423.548481283332</v>
+        <v>2548.862392813404</v>
       </c>
       <c r="Y17" t="n">
-        <v>2100.488443485023</v>
+        <v>2225.802355015097</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>181.6083366728449</v>
       </c>
       <c r="H18" t="n">
-        <v>91.10644231071245</v>
+        <v>91.10644231071242</v>
       </c>
       <c r="I18" t="n">
-        <v>72.09915071225039</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J18" t="n">
-        <v>165.7764202028677</v>
+        <v>165.7764202028676</v>
       </c>
       <c r="K18" t="n">
         <v>404.0406191832147</v>
@@ -5604,7 +5604,7 @@
         <v>1218.015104718196</v>
       </c>
       <c r="N18" t="n">
-        <v>1691.538148272651</v>
+        <v>1691.53814827265</v>
       </c>
       <c r="O18" t="n">
         <v>2102.499427690705</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>627.645655479349</v>
+        <v>627.6456554793477</v>
       </c>
       <c r="C19" t="n">
-        <v>525.7887667289457</v>
+        <v>525.7887667289447</v>
       </c>
       <c r="D19" t="n">
-        <v>442.7514214941136</v>
+        <v>442.7514214941128</v>
       </c>
       <c r="E19" t="n">
-        <v>361.9176220892241</v>
+        <v>361.9176220892235</v>
       </c>
       <c r="F19" t="n">
-        <v>282.1069687688174</v>
+        <v>282.1069687688169</v>
       </c>
       <c r="G19" t="n">
-        <v>181.48342632104</v>
+        <v>181.4834263210396</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3455337164014</v>
+        <v>102.3455337164012</v>
       </c>
       <c r="I19" t="n">
-        <v>72.09915071225039</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J19" t="n">
         <v>117.2217831591859</v>
@@ -5677,46 +5677,46 @@
         <v>321.2089661080622</v>
       </c>
       <c r="L19" t="n">
-        <v>637.7687645565584</v>
+        <v>695.7372669049236</v>
       </c>
       <c r="M19" t="n">
-        <v>981.9258101561073</v>
+        <v>1039.894312504473</v>
       </c>
       <c r="N19" t="n">
-        <v>1323.334186861972</v>
+        <v>1381.302689210337</v>
       </c>
       <c r="O19" t="n">
-        <v>1622.663785782385</v>
+        <v>1680.63228813075</v>
       </c>
       <c r="P19" t="n">
-        <v>1855.271286216044</v>
+        <v>1913.23978856441</v>
       </c>
       <c r="Q19" t="n">
-        <v>1990.850084716927</v>
+        <v>1990.850084716924</v>
       </c>
       <c r="R19" t="n">
-        <v>1968.098921651959</v>
+        <v>1968.098921651956</v>
       </c>
       <c r="S19" t="n">
-        <v>1843.492331656289</v>
+        <v>1843.492331656286</v>
       </c>
       <c r="T19" t="n">
-        <v>1688.805010403318</v>
+        <v>1688.805010403316</v>
       </c>
       <c r="U19" t="n">
-        <v>1466.781437706465</v>
+        <v>1466.781437706463</v>
       </c>
       <c r="V19" t="n">
-        <v>1279.176243678082</v>
+        <v>1279.17624367808</v>
       </c>
       <c r="W19" t="n">
-        <v>1056.838367818625</v>
+        <v>1056.838367818624</v>
       </c>
       <c r="X19" t="n">
-        <v>895.9281110981115</v>
+        <v>895.92811109811</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.214826132085</v>
+        <v>742.2148261320837</v>
       </c>
     </row>
     <row r="20">
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1737.756523303002</v>
+        <v>1906.281809128478</v>
       </c>
       <c r="C20" t="n">
-        <v>1435.873300540094</v>
+        <v>1604.39858636557</v>
       </c>
       <c r="D20" t="n">
-        <v>1144.686896110848</v>
+        <v>1313.212181936323</v>
       </c>
       <c r="E20" t="n">
-        <v>825.9779376901074</v>
+        <v>994.5032235155827</v>
       </c>
       <c r="F20" t="n">
-        <v>650.5966129034792</v>
+        <v>650.5966129034789</v>
       </c>
       <c r="G20" t="n">
-        <v>302.6034569259796</v>
+        <v>302.6034569259793</v>
       </c>
       <c r="H20" t="n">
-        <v>72.09915071225038</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="I20" t="n">
-        <v>72.09915071225038</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J20" t="n">
-        <v>260.9782816712758</v>
+        <v>260.9782816712757</v>
       </c>
       <c r="K20" t="n">
-        <v>594.7976553611222</v>
+        <v>868.5623350844028</v>
       </c>
       <c r="L20" t="n">
-        <v>1045.831868609531</v>
+        <v>1319.596548332811</v>
       </c>
       <c r="M20" t="n">
-        <v>1579.363773281455</v>
+        <v>1853.128453004736</v>
       </c>
       <c r="N20" t="n">
-        <v>2126.142590340237</v>
+        <v>2399.907270063518</v>
       </c>
       <c r="O20" t="n">
-        <v>2629.115061219574</v>
+        <v>2902.879740942855</v>
       </c>
       <c r="P20" t="n">
-        <v>3297.654107300034</v>
+        <v>3297.654107300033</v>
       </c>
       <c r="Q20" t="n">
-        <v>3545.940469055716</v>
+        <v>3545.940469055715</v>
       </c>
       <c r="R20" t="n">
-        <v>3604.957535612519</v>
+        <v>3604.957535612517</v>
       </c>
       <c r="S20" t="n">
-        <v>3561.746161317118</v>
+        <v>3561.746161317116</v>
       </c>
       <c r="T20" t="n">
-        <v>3422.847707878843</v>
+        <v>3422.847707878842</v>
       </c>
       <c r="U20" t="n">
-        <v>3236.396525330183</v>
+        <v>3236.396525330182</v>
       </c>
       <c r="V20" t="n">
-        <v>2972.412932164116</v>
+        <v>2972.412932164115</v>
       </c>
       <c r="W20" t="n">
         <v>2686.723571071505</v>
@@ -5795,7 +5795,7 @@
         <v>2380.337106987929</v>
       </c>
       <c r="Y20" t="n">
-        <v>2057.27706918962</v>
+        <v>2225.802355015096</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>181.6083366728449</v>
       </c>
       <c r="H21" t="n">
-        <v>91.10644231071245</v>
+        <v>91.10644231071242</v>
       </c>
       <c r="I21" t="n">
-        <v>72.09915071225038</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J21" t="n">
-        <v>165.7764202028683</v>
+        <v>165.7764202028676</v>
       </c>
       <c r="K21" t="n">
-        <v>404.0406191832154</v>
+        <v>404.0406191832147</v>
       </c>
       <c r="L21" t="n">
-        <v>770.7387794958806</v>
+        <v>770.73877949588</v>
       </c>
       <c r="M21" t="n">
         <v>1218.015104718196</v>
       </c>
       <c r="N21" t="n">
-        <v>1691.538148272651</v>
+        <v>1691.53814827265</v>
       </c>
       <c r="O21" t="n">
         <v>2102.499427690705</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>627.645655479349</v>
+        <v>627.6456554793477</v>
       </c>
       <c r="C22" t="n">
-        <v>525.7887667289457</v>
+        <v>525.7887667289447</v>
       </c>
       <c r="D22" t="n">
-        <v>442.7514214941136</v>
+        <v>442.7514214941128</v>
       </c>
       <c r="E22" t="n">
-        <v>361.9176220892241</v>
+        <v>361.9176220892235</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1069687688174</v>
+        <v>282.1069687688169</v>
       </c>
       <c r="G22" t="n">
-        <v>181.48342632104</v>
+        <v>181.4834263210396</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3455337164014</v>
+        <v>102.3455337164012</v>
       </c>
       <c r="I22" t="n">
-        <v>72.09915071225038</v>
+        <v>72.09915071225035</v>
       </c>
       <c r="J22" t="n">
         <v>117.2217831591859</v>
@@ -5914,46 +5914,46 @@
         <v>321.2089661080622</v>
       </c>
       <c r="L22" t="n">
-        <v>695.7372669049263</v>
+        <v>637.7687645565584</v>
       </c>
       <c r="M22" t="n">
-        <v>1039.894312504475</v>
+        <v>981.9258101561073</v>
       </c>
       <c r="N22" t="n">
-        <v>1381.30268921034</v>
+        <v>1381.302689210337</v>
       </c>
       <c r="O22" t="n">
-        <v>1680.632288130753</v>
+        <v>1680.63228813075</v>
       </c>
       <c r="P22" t="n">
-        <v>1913.239788564412</v>
+        <v>1913.23978856441</v>
       </c>
       <c r="Q22" t="n">
-        <v>1990.850084716927</v>
+        <v>1990.850084716924</v>
       </c>
       <c r="R22" t="n">
-        <v>1968.098921651959</v>
+        <v>1968.098921651956</v>
       </c>
       <c r="S22" t="n">
-        <v>1843.492331656289</v>
+        <v>1843.492331656286</v>
       </c>
       <c r="T22" t="n">
-        <v>1688.805010403318</v>
+        <v>1688.805010403316</v>
       </c>
       <c r="U22" t="n">
-        <v>1466.781437706465</v>
+        <v>1466.781437706463</v>
       </c>
       <c r="V22" t="n">
-        <v>1279.176243678082</v>
+        <v>1279.17624367808</v>
       </c>
       <c r="W22" t="n">
-        <v>1056.838367818625</v>
+        <v>1056.838367818624</v>
       </c>
       <c r="X22" t="n">
-        <v>895.9281110981115</v>
+        <v>895.92811109811</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.214826132085</v>
+        <v>742.2148261320837</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1909.721100675938</v>
+        <v>1909.721100675937</v>
       </c>
       <c r="C23" t="n">
         <v>1607.837877913029</v>
@@ -5972,67 +5972,67 @@
         <v>1316.651473483782</v>
       </c>
       <c r="E23" t="n">
-        <v>997.9425150630417</v>
+        <v>997.942515063042</v>
       </c>
       <c r="F23" t="n">
-        <v>654.0359044509378</v>
+        <v>654.0359044509382</v>
       </c>
       <c r="G23" t="n">
-        <v>306.0427484734382</v>
+        <v>306.0427484734381</v>
       </c>
       <c r="H23" t="n">
-        <v>75.53844225970904</v>
+        <v>75.53844225970903</v>
       </c>
       <c r="I23" t="n">
-        <v>75.53844225970904</v>
+        <v>75.53844225970903</v>
       </c>
       <c r="J23" t="n">
-        <v>431.8232222390874</v>
+        <v>264.4175732187344</v>
       </c>
       <c r="K23" t="n">
-        <v>765.6425959289338</v>
+        <v>598.2369469085809</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.676809177342</v>
+        <v>1049.271160156989</v>
       </c>
       <c r="M23" t="n">
-        <v>1750.208713849267</v>
+        <v>1582.803064828914</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.987530908049</v>
+        <v>2129.581881887696</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.960001787386</v>
+        <v>2632.554352767033</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.734368144564</v>
+        <v>3259.426843919661</v>
       </c>
       <c r="Q23" t="n">
-        <v>3653.212570653552</v>
+        <v>3717.905046428649</v>
       </c>
       <c r="R23" t="n">
-        <v>3776.922112985452</v>
+        <v>3776.922112985451</v>
       </c>
       <c r="S23" t="n">
-        <v>3733.710738690051</v>
+        <v>3733.71073869005</v>
       </c>
       <c r="T23" t="n">
-        <v>3594.812285251777</v>
+        <v>3594.812285251776</v>
       </c>
       <c r="U23" t="n">
         <v>3408.361102703117</v>
       </c>
       <c r="V23" t="n">
-        <v>3144.37750953705</v>
+        <v>3144.377509537049</v>
       </c>
       <c r="W23" t="n">
-        <v>2858.68814844444</v>
+        <v>2858.688148444438</v>
       </c>
       <c r="X23" t="n">
-        <v>2552.301684360864</v>
+        <v>2552.301684360863</v>
       </c>
       <c r="Y23" t="n">
-        <v>2229.241646562556</v>
+        <v>2229.241646562555</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>94.5457338581711</v>
       </c>
       <c r="I24" t="n">
-        <v>75.53844225970904</v>
+        <v>75.53844225970903</v>
       </c>
       <c r="J24" t="n">
-        <v>169.2157117503274</v>
+        <v>169.2157117503263</v>
       </c>
       <c r="K24" t="n">
-        <v>407.4799107306745</v>
+        <v>407.4799107306734</v>
       </c>
       <c r="L24" t="n">
-        <v>774.1780710433397</v>
+        <v>774.1780710433386</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.454396265656</v>
+        <v>1221.454396265654</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.97743982011</v>
+        <v>1694.977439820109</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.938719238165</v>
+        <v>2105.938719238164</v>
       </c>
       <c r="P24" t="n">
         <v>2416.438310714267</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.0849470268076</v>
+        <v>631.0849470268065</v>
       </c>
       <c r="C25" t="n">
-        <v>529.2280582764043</v>
+        <v>529.2280582764034</v>
       </c>
       <c r="D25" t="n">
-        <v>446.1907130415722</v>
+        <v>446.1907130415715</v>
       </c>
       <c r="E25" t="n">
-        <v>365.3569136366827</v>
+        <v>365.3569136366822</v>
       </c>
       <c r="F25" t="n">
-        <v>285.5462603162761</v>
+        <v>285.5462603162756</v>
       </c>
       <c r="G25" t="n">
-        <v>184.9227178684986</v>
+        <v>184.9227178684983</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7848252638601</v>
+        <v>105.7848252638599</v>
       </c>
       <c r="I25" t="n">
-        <v>75.53844225970904</v>
+        <v>75.53844225970903</v>
       </c>
       <c r="J25" t="n">
         <v>120.6610747066446</v>
       </c>
       <c r="K25" t="n">
-        <v>382.6167600038888</v>
+        <v>382.6167600038861</v>
       </c>
       <c r="L25" t="n">
-        <v>699.1765584523849</v>
+        <v>699.1765584523822</v>
       </c>
       <c r="M25" t="n">
-        <v>1043.333604051934</v>
+        <v>1043.333604051931</v>
       </c>
       <c r="N25" t="n">
-        <v>1384.741980757799</v>
+        <v>1384.741980757796</v>
       </c>
       <c r="O25" t="n">
-        <v>1684.071579678212</v>
+        <v>1684.071579678209</v>
       </c>
       <c r="P25" t="n">
-        <v>1916.679080111871</v>
+        <v>1916.679080111868</v>
       </c>
       <c r="Q25" t="n">
-        <v>1994.289376264386</v>
+        <v>1994.289376264383</v>
       </c>
       <c r="R25" t="n">
-        <v>1971.538213199417</v>
+        <v>1971.538213199415</v>
       </c>
       <c r="S25" t="n">
-        <v>1846.931623203747</v>
+        <v>1846.931623203745</v>
       </c>
       <c r="T25" t="n">
-        <v>1692.244301950777</v>
+        <v>1692.244301950775</v>
       </c>
       <c r="U25" t="n">
-        <v>1470.220729253924</v>
+        <v>1470.220729253922</v>
       </c>
       <c r="V25" t="n">
-        <v>1282.615535225541</v>
+        <v>1282.615535225539</v>
       </c>
       <c r="W25" t="n">
-        <v>1060.277659366084</v>
+        <v>1060.277659366082</v>
       </c>
       <c r="X25" t="n">
-        <v>899.3674026455701</v>
+        <v>899.3674026455687</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.6541176795437</v>
+        <v>745.6541176795424</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.011402386887</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6309,13 +6309,13 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6370,37 +6370,37 @@
         <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6452,40 +6452,40 @@
         <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>289.2351327209267</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>943.9584648562261</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104635</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776559</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.303399835341</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,10 +6497,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,22 +6701,22 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890168</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037425</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.68494470935</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768132</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6847,7 +6847,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,22 +6856,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
@@ -6935,52 +6935,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>887.9771891384783</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
@@ -7096,7 +7096,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7105,10 +7105,10 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
         <v>2189.856749167329</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.845421545561</v>
+        <v>878.8992091819721</v>
       </c>
       <c r="L38" t="n">
-        <v>1468.364237198915</v>
+        <v>1329.933422430381</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.89614187084</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.29557928546</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1468.364237198915</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.89614187084</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="44">
@@ -7628,49 +7628,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>875.9322461484401</v>
       </c>
       <c r="L44" t="n">
-        <v>1468.364237198915</v>
+        <v>1326.966459396849</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.89614187084</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N44" t="n">
-        <v>2548.674958929621</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
         <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7789,28 +7789,28 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>64.21498885856232</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>276.5299795184658</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>276.5299795184654</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>276.5299795184669</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>234.4425502984342</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.34593512636174</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>287.0017854473918</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.13839585591558</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19.4031160254668</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>18.79169145623314</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>124.5185911550059</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>336.8335818149108</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>277.2206841544154</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>108.7354935515739</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>306.6874953089272</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>306.6874953089267</v>
+        <v>40.02214132148799</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>274.8351763665447</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>306.6874953089266</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>363.3004770463446</v>
+        <v>363.3004770463444</v>
       </c>
       <c r="C11" t="n">
-        <v>345.8395271538715</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>203.072887101607</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>184.484605522484</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.22480344780553</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>350.297736061333</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>366.8045740389174</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>160.3986155648011</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>147.8134564814917</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>125.3216502971846</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>76.91905579270193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>170.3356607143059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.1155846590332</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>53.46235385229417</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.704278706692</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>146.1650997961419</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>328.1959343164095</v>
+        <v>335.2496770035468</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>387.4426811245753</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>275.1743997701844</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.4846055224841</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.5618073417658</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>329.807604100277</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>163.4083782394659</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>147.8134564814918</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.0005980294331</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.9876834057952</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4944897184198</v>
+        <v>146.5924436418921</v>
       </c>
       <c r="H16" t="n">
-        <v>125.3216502971847</v>
+        <v>125.3216502971846</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.49878805291118</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.50071723364258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.7042787066918</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>124.0607724147721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.77926055244724</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>166.8400329672205</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>166.8400329672207</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>166.8400329672196</v>
       </c>
     </row>
     <row r="21">
@@ -26320,16 +26320,16 @@
         <v>184338.8331748871</v>
       </c>
       <c r="E2" t="n">
-        <v>161171.3255207945</v>
+        <v>161171.3255207948</v>
       </c>
       <c r="F2" t="n">
-        <v>161171.3255207947</v>
+        <v>161171.3255207948</v>
       </c>
       <c r="G2" t="n">
-        <v>181746.293229021</v>
+        <v>181746.2932290208</v>
       </c>
       <c r="H2" t="n">
-        <v>181746.2932290208</v>
+        <v>181746.2932290209</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194637</v>
@@ -26338,22 +26338,22 @@
         <v>184734.3982194638</v>
       </c>
       <c r="K2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="M2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194638</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56721.63792802599</v>
+        <v>56721.63792802593</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11432.24809489696</v>
+        <v>11432.24809489699</v>
       </c>
       <c r="J3" t="n">
-        <v>18342.79672397529</v>
+        <v>18342.79672397539</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16806.56733165491</v>
+        <v>16806.56733165492</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>419628.9472231871</v>
       </c>
       <c r="E4" t="n">
-        <v>29408.70661412327</v>
+        <v>29408.70661412341</v>
       </c>
       <c r="F4" t="n">
-        <v>29408.7066141233</v>
+        <v>29408.70661412341</v>
       </c>
       <c r="G4" t="n">
-        <v>77546.04600947059</v>
+        <v>77546.04600947064</v>
       </c>
       <c r="H4" t="n">
-        <v>77546.04600947059</v>
+        <v>77546.04600947062</v>
       </c>
       <c r="I4" t="n">
-        <v>82647.66388928673</v>
+        <v>82647.66388928676</v>
       </c>
       <c r="J4" t="n">
+        <v>78703.96570883355</v>
+      </c>
+      <c r="K4" t="n">
+        <v>78703.96570883355</v>
+      </c>
+      <c r="L4" t="n">
         <v>78703.96570883352</v>
       </c>
-      <c r="K4" t="n">
-        <v>78703.96570883354</v>
-      </c>
-      <c r="L4" t="n">
-        <v>78703.96570883349</v>
-      </c>
       <c r="M4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883358</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883354</v>
+        <v>78703.96570883351</v>
       </c>
       <c r="P4" t="n">
         <v>78703.96570883354</v>
@@ -26476,10 +26476,10 @@
         <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>75940.08409139131</v>
+        <v>75940.08409139133</v>
       </c>
       <c r="F5" t="n">
-        <v>75940.08409139131</v>
+        <v>75940.0840913913</v>
       </c>
       <c r="G5" t="n">
         <v>84135.38290463065</v>
@@ -26497,13 +26497,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="M5" t="n">
         <v>89377.9416748061</v>
       </c>
-      <c r="M5" t="n">
-        <v>89377.94167480612</v>
-      </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274813.5629547698</v>
+        <v>-274817.976532638</v>
       </c>
       <c r="C6" t="n">
-        <v>-274813.5629547699</v>
+        <v>-274817.976532638</v>
       </c>
       <c r="D6" t="n">
-        <v>-289128.388911196</v>
+        <v>-289132.784078358</v>
       </c>
       <c r="E6" t="n">
-        <v>-1065003.190525578</v>
+        <v>-1065265.002444452</v>
       </c>
       <c r="F6" t="n">
-        <v>55822.53481528004</v>
+        <v>55560.72289640601</v>
       </c>
       <c r="G6" t="n">
-        <v>-36656.77361310627</v>
+        <v>-36689.97477966685</v>
       </c>
       <c r="H6" t="n">
-        <v>20064.86431491957</v>
+        <v>20031.66314835915</v>
       </c>
       <c r="I6" t="n">
-        <v>3905.241754580798</v>
+        <v>3905.24175458074</v>
       </c>
       <c r="J6" t="n">
-        <v>-1690.305888151124</v>
+        <v>-1690.305888151299</v>
       </c>
       <c r="K6" t="n">
-        <v>16652.49083582408</v>
+        <v>16652.49083582415</v>
       </c>
       <c r="L6" t="n">
-        <v>-20927.6184590499</v>
+        <v>-20927.61845904989</v>
       </c>
       <c r="M6" t="n">
         <v>-190536.0774562487</v>
       </c>
       <c r="N6" t="n">
-        <v>16652.49083582405</v>
+        <v>16652.49083582427</v>
       </c>
       <c r="O6" t="n">
-        <v>-154.0764958307846</v>
+        <v>-154.076495830639</v>
       </c>
       <c r="P6" t="n">
-        <v>16652.49083582425</v>
+        <v>16652.49083582411</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F2" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="G2" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H2" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I2" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>901.2393839031298</v>
+        <v>901.2393839031294</v>
       </c>
       <c r="H4" t="n">
-        <v>901.2393839031297</v>
+        <v>901.2393839031294</v>
       </c>
       <c r="I4" t="n">
-        <v>944.2305282463631</v>
+        <v>944.2305282463628</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.83792850083705</v>
+        <v>69.83792850083682</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.99114434323337</v>
+        <v>42.99114434323349</v>
       </c>
       <c r="J4" t="n">
-        <v>70.10593296225136</v>
+        <v>70.1059329622517</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.83792850083694</v>
+        <v>69.83792850083717</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.83792850083705</v>
+        <v>69.83792850083682</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="C11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="D11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="E11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="G11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="H11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="I11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="T11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="U11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="V11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="W11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="X11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="C13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="D13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="E13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="G13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="I13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="K13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="L13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="M13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="N13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="O13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="P13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="R13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="S13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="T13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="U13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="V13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="W13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="X13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="C14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="D14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="E14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="G14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="H14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="I14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="T14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="U14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="V14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="W14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="X14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="C16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="D16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="E16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="F16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="G16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="H16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="I16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="J16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="K16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="L16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="M16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="N16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="O16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="P16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="R16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="S16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="T16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="U16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="V16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="W16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="X16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.43336461713604</v>
+        <v>19.43336461713616</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>58.55404277612649</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.55404277612921</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="S19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>58.55404277612928</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>58.55404277612638</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="S22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="C25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="D25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="E25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="F25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="G25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="H25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="I25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.55404277612922</v>
+        <v>58.55404277612649</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="S25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="T25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="U25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="V25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="W25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="X25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.40850123572861</v>
+        <v>66.40850123572875</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
         <v>46.97513661859258</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="44">
@@ -30885,7 +30885,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
         <v>46.97513661859256</v>
@@ -32093,10 +32093,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,10 +33515,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34223,7 +34223,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.01178123020226</v>
+        <v>65.01178123020239</v>
       </c>
       <c r="K13" t="n">
-        <v>225.4810241614556</v>
+        <v>225.4810241614557</v>
       </c>
       <c r="L13" t="n">
-        <v>339.1907367873342</v>
+        <v>339.1907367873343</v>
       </c>
       <c r="M13" t="n">
-        <v>367.0667440106199</v>
+        <v>367.06674401062</v>
       </c>
       <c r="N13" t="n">
-        <v>364.2903107846761</v>
+        <v>364.2903107846762</v>
       </c>
       <c r="O13" t="n">
-        <v>321.7864948397758</v>
+        <v>321.786494839776</v>
       </c>
       <c r="P13" t="n">
-        <v>254.3904357622465</v>
+        <v>254.3904357622466</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.82760315502969</v>
+        <v>97.82760315502982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.01178123020223</v>
+        <v>65.01178123020236</v>
       </c>
       <c r="K16" t="n">
-        <v>225.4810241614555</v>
+        <v>225.4810241614557</v>
       </c>
       <c r="L16" t="n">
-        <v>339.1907367873341</v>
+        <v>339.1907367873342</v>
       </c>
       <c r="M16" t="n">
-        <v>367.0667440106198</v>
+        <v>367.0667440106199</v>
       </c>
       <c r="N16" t="n">
-        <v>364.2903107846761</v>
+        <v>364.2903107846762</v>
       </c>
       <c r="O16" t="n">
-        <v>321.7864948397757</v>
+        <v>321.7864948397759</v>
       </c>
       <c r="P16" t="n">
-        <v>254.3904357622464</v>
+        <v>254.3904357622465</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.82760315502966</v>
+        <v>97.82760315502979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0019898272748</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35896,13 +35896,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>784.5829804066848</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222472</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>378.3114149463246</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.9482813140228</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>613.7212660738658</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923319</v>
@@ -36136,7 +36136,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>675.2919657378385</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>378.3114149463274</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>403.4109889436664</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>633.2045365178059</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>124.9591336685865</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597813</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>264.6017023204487</v>
+        <v>264.601702320446</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>742.5918998397237</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>80.7515943981403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>210.1901169941793</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
@@ -36841,16 +36841,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>571.0935268691444</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,10 +37069,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>461.7098777104063</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>792.4236962072428</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37087,7 +37087,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>624.1930720027916</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>785.2736850426344</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37470,7 +37470,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120759</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>445.9267801069743</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>858.9893307218384</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>858.989330721838</v>
+        <v>592.3239767343993</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37871,7 +37871,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887906</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>612.026462921945</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>814.7404961971456</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597773</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
